--- a/biology/Botanique/Martyniaceae/Martyniaceae.xlsx
+++ b/biology/Botanique/Martyniaceae/Martyniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Martyniacées regroupe des plantes dicotylédones ; elle comprend plus d'une dizaine d'espèces réparties en quatre genres.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient de son genre type Martynia, nommé en hommage au botaniste anglais Thomas Martyn (1735–1825), professeur de botanique à l’université de Cambridge.
 </t>
@@ -542,10 +556,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG (1998)[1], la famille est optionnelle et ces plantes aussi peuvent être incluses dans les Pédaliacées.
-La classification phylogénétique APG II (2003)[2] et la classification phylogénétique APG III (2009)[3] acceptent cette famille.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG (1998), la famille est optionnelle et ces plantes aussi peuvent être incluses dans les Pédaliacées.
+La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) acceptent cette famille.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ibicella
@@ -607,14 +625,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[4], DELTA Angio           (12 nov. 2015)[5] et ITIS      (12 nov. 2015)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015), DELTA Angio           (12 nov. 2015) et ITIS      (12 nov. 2015) :
 Craniolaria (en)
 Ibicella
 Martynia (en)
 Proboscidea
-Selon NCBI  (12 nov. 2015)[7] :
+Selon NCBI  (12 nov. 2015) :
 Craniolaria
 Holoregmia (pt)
 Ibicella
@@ -647,9 +667,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 nov. 2015)[7] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 nov. 2015) :
 genre Craniolaria
 Craniolaria annua
 Craniolaria integrifolia
